--- a/experiment_results/trajectory_2021-06-08T10:00:58.560176.xlsx
+++ b/experiment_results/trajectory_2021-06-08T10:00:58.560176.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
   <si>
     <t xml:space="preserve">50 epochs, depths 1-25</t>
   </si>
@@ -627,6 +627,18 @@
   <si>
     <t xml:space="preserve">&lt;Genome {'input_shape': (3, 32, 32), 'output_feature_depth': 10, 'genes': [&lt;Gene {'node': &lt;SumNode {'input_shapes': [(3, 32, 32), (3, 32, 32)]}&gt;, 'input_indices': [-1, -1], 'input_shapes': [(3, 32, 32), (3, 32, 32)]}&gt;, &lt;Gene {'node': &lt;ConvNode {'input_shapes': [(3, 3, 3)], '_ConvNode__input_shape': (3, 3, 3), '_ConvNode__output_feature_depth': 64, 'kernel_size': 3}&gt;, 'input_indices': [0], 'input_shapes': [(3, 3, 3)]}&gt;, &lt;Gene {'node': &lt;ConvNode {'input_shapes': [(3, 3, 3)], '_ConvNode__input_shape': (3, 3, 3), '_ConvNode__output_feature_depth': 32, 'kernel_size': 3}&gt;, 'input_indices': [0], 'input_shapes': [(3, 3, 3)]}&gt;, &lt;Gene {'node': &lt;MaxPoolNode {'input_shapes': [(3, 32, 32)]}&gt;, 'input_indices': [-1], 'input_shapes': [(3, 32, 32)]}&gt;]}&gt;</t>
   </si>
+  <si>
+    <t xml:space="preserve">Average loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation to e100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation to v100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en/vn correlation</t>
+  </si>
 </sst>
 </file>
 
@@ -721,10 +733,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CY102"/>
+  <dimension ref="A1:CY109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B119" activeCellId="0" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32156,6 +32168,1454 @@
         <v>1.53671360015869</v>
       </c>
     </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B102)</f>
+        <v>4.21934536731604</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C102)</f>
+        <v>2.06551382999227</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D102)</f>
+        <v>1.97257717932114</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E102)</f>
+        <v>1.90845962004228</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F102)</f>
+        <v>1.85873822130338</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G102)</f>
+        <v>1.81747491793199</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H102)</f>
+        <v>1.78248752608444</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I102)</f>
+        <v>1.75230432279182</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J102)</f>
+        <v>1.72583292951488</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K102)</f>
+        <v>1.70210297300358</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L102)</f>
+        <v>1.68048303536694</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <f aca="false">AVERAGE(M4:M102)</f>
+        <v>1.66050207735312</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <f aca="false">AVERAGE(N4:N102)</f>
+        <v>1.64192543487356</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O102)</f>
+        <v>1.62452197616751</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P102)</f>
+        <v>1.60805172631235</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q102)</f>
+        <v>1.59254368025847</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R102)</f>
+        <v>1.57766240293329</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S102)</f>
+        <v>1.56319036206814</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <f aca="false">AVERAGE(T4:T102)</f>
+        <v>1.54957111917361</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <f aca="false">AVERAGE(U4:U102)</f>
+        <v>1.53708933338974</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <f aca="false">AVERAGE(V4:V102)</f>
+        <v>1.52451507912742</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <f aca="false">AVERAGE(W4:W102)</f>
+        <v>1.51239865897882</v>
+      </c>
+      <c r="X104" s="0" t="n">
+        <f aca="false">AVERAGE(X4:X102)</f>
+        <v>1.50067130363349</v>
+      </c>
+      <c r="Y104" s="0" t="n">
+        <f aca="false">AVERAGE(Y4:Y102)</f>
+        <v>1.48942854037189</v>
+      </c>
+      <c r="Z104" s="0" t="n">
+        <f aca="false">AVERAGE(Z4:Z102)</f>
+        <v>1.47820892809617</v>
+      </c>
+      <c r="AA104" s="0" t="n">
+        <f aca="false">AVERAGE(AA4:AA102)</f>
+        <v>1.46681825470443</v>
+      </c>
+      <c r="AB104" s="0" t="n">
+        <f aca="false">AVERAGE(AB4:AB102)</f>
+        <v>1.45608948908671</v>
+      </c>
+      <c r="AC104" s="0" t="n">
+        <f aca="false">AVERAGE(AC4:AC102)</f>
+        <v>1.44529133734077</v>
+      </c>
+      <c r="AD104" s="0" t="n">
+        <f aca="false">AVERAGE(AD4:AD102)</f>
+        <v>1.43494716331814</v>
+      </c>
+      <c r="AE104" s="0" t="n">
+        <f aca="false">AVERAGE(AE4:AE102)</f>
+        <v>1.42510514442969</v>
+      </c>
+      <c r="AF104" s="0" t="n">
+        <f aca="false">AVERAGE(AF4:AF102)</f>
+        <v>1.41593362962959</v>
+      </c>
+      <c r="AG104" s="0" t="n">
+        <f aca="false">AVERAGE(AG4:AG102)</f>
+        <v>1.40626563613463</v>
+      </c>
+      <c r="AH104" s="0" t="n">
+        <f aca="false">AVERAGE(AH4:AH102)</f>
+        <v>1.39698684554208</v>
+      </c>
+      <c r="AI104" s="0" t="n">
+        <f aca="false">AVERAGE(AI4:AI102)</f>
+        <v>1.38795832273635</v>
+      </c>
+      <c r="AJ104" s="0" t="n">
+        <f aca="false">AVERAGE(AJ4:AJ102)</f>
+        <v>1.3795878073257</v>
+      </c>
+      <c r="AK104" s="0" t="n">
+        <f aca="false">AVERAGE(AK4:AK102)</f>
+        <v>1.37179095234082</v>
+      </c>
+      <c r="AL104" s="0" t="n">
+        <f aca="false">AVERAGE(AL4:AL102)</f>
+        <v>1.36349172643715</v>
+      </c>
+      <c r="AM104" s="0" t="n">
+        <f aca="false">AVERAGE(AM4:AM102)</f>
+        <v>1.35540155127569</v>
+      </c>
+      <c r="AN104" s="0" t="n">
+        <f aca="false">AVERAGE(AN4:AN102)</f>
+        <v>1.34761059009517</v>
+      </c>
+      <c r="AO104" s="0" t="n">
+        <f aca="false">AVERAGE(AO4:AO102)</f>
+        <v>1.33970510417765</v>
+      </c>
+      <c r="AP104" s="0" t="n">
+        <f aca="false">AVERAGE(AP4:AP102)</f>
+        <v>1.33226412561995</v>
+      </c>
+      <c r="AQ104" s="0" t="n">
+        <f aca="false">AVERAGE(AQ4:AQ102)</f>
+        <v>1.32501504171376</v>
+      </c>
+      <c r="AR104" s="0" t="n">
+        <f aca="false">AVERAGE(AR4:AR102)</f>
+        <v>1.31818584288762</v>
+      </c>
+      <c r="AS104" s="0" t="n">
+        <f aca="false">AVERAGE(AS4:AS102)</f>
+        <v>1.31172245548041</v>
+      </c>
+      <c r="AT104" s="0" t="n">
+        <f aca="false">AVERAGE(AT4:AT102)</f>
+        <v>1.30471083418363</v>
+      </c>
+      <c r="AU104" s="0" t="n">
+        <f aca="false">AVERAGE(AU4:AU102)</f>
+        <v>1.29824798140261</v>
+      </c>
+      <c r="AV104" s="0" t="n">
+        <f aca="false">AVERAGE(AV4:AV102)</f>
+        <v>1.29221222086838</v>
+      </c>
+      <c r="AW104" s="0" t="n">
+        <f aca="false">AVERAGE(AW4:AW102)</f>
+        <v>1.28664802625361</v>
+      </c>
+      <c r="AX104" s="0" t="n">
+        <f aca="false">AVERAGE(AX4:AX102)</f>
+        <v>1.27996076214494</v>
+      </c>
+      <c r="AY104" s="0" t="n">
+        <f aca="false">AVERAGE(AY4:AY102)</f>
+        <v>1.27332885860174</v>
+      </c>
+      <c r="AZ104" s="0" t="n">
+        <f aca="false">AVERAGE(AZ4:AZ102)</f>
+        <v>1.26724462998053</v>
+      </c>
+      <c r="BA104" s="0" t="n">
+        <f aca="false">AVERAGE(BA4:BA102)</f>
+        <v>4.16351102337693</v>
+      </c>
+      <c r="BB104" s="0" t="n">
+        <f aca="false">AVERAGE(BB4:BB102)</f>
+        <v>2.05223235819075</v>
+      </c>
+      <c r="BC104" s="0" t="n">
+        <f aca="false">AVERAGE(BC4:BC102)</f>
+        <v>1.96265252069993</v>
+      </c>
+      <c r="BD104" s="0" t="n">
+        <f aca="false">AVERAGE(BD4:BD102)</f>
+        <v>1.90264041616459</v>
+      </c>
+      <c r="BE104" s="0" t="n">
+        <f aca="false">AVERAGE(BE4:BE102)</f>
+        <v>1.85720778474904</v>
+      </c>
+      <c r="BF104" s="0" t="n">
+        <f aca="false">AVERAGE(BF4:BF102)</f>
+        <v>1.82032950478371</v>
+      </c>
+      <c r="BG104" s="0" t="n">
+        <f aca="false">AVERAGE(BG4:BG102)</f>
+        <v>1.78994765907827</v>
+      </c>
+      <c r="BH104" s="0" t="n">
+        <f aca="false">AVERAGE(BH4:BH102)</f>
+        <v>1.76448520265444</v>
+      </c>
+      <c r="BI104" s="0" t="n">
+        <f aca="false">AVERAGE(BI4:BI102)</f>
+        <v>1.74292806904725</v>
+      </c>
+      <c r="BJ104" s="0" t="n">
+        <f aca="false">AVERAGE(BJ4:BJ102)</f>
+        <v>1.72435664167308</v>
+      </c>
+      <c r="BK104" s="0" t="n">
+        <f aca="false">AVERAGE(BK4:BK102)</f>
+        <v>1.70803529084331</v>
+      </c>
+      <c r="BL104" s="0" t="n">
+        <f aca="false">AVERAGE(BL4:BL102)</f>
+        <v>1.69379059232847</v>
+      </c>
+      <c r="BM104" s="0" t="n">
+        <f aca="false">AVERAGE(BM4:BM102)</f>
+        <v>1.68098753269273</v>
+      </c>
+      <c r="BN104" s="0" t="n">
+        <f aca="false">AVERAGE(BN4:BN102)</f>
+        <v>1.66924923838991</v>
+      </c>
+      <c r="BO104" s="0" t="n">
+        <f aca="false">AVERAGE(BO4:BO102)</f>
+        <v>1.65897255473667</v>
+      </c>
+      <c r="BP104" s="0" t="n">
+        <f aca="false">AVERAGE(BP4:BP102)</f>
+        <v>1.64973883917837</v>
+      </c>
+      <c r="BQ104" s="0" t="n">
+        <f aca="false">AVERAGE(BQ4:BQ102)</f>
+        <v>1.64158094290531</v>
+      </c>
+      <c r="BR104" s="0" t="n">
+        <f aca="false">AVERAGE(BR4:BR102)</f>
+        <v>1.63372136727728</v>
+      </c>
+      <c r="BS104" s="0" t="n">
+        <f aca="false">AVERAGE(BS4:BS102)</f>
+        <v>1.62699847751194</v>
+      </c>
+      <c r="BT104" s="0" t="n">
+        <f aca="false">AVERAGE(BT4:BT102)</f>
+        <v>1.6214256985019</v>
+      </c>
+      <c r="BU104" s="0" t="n">
+        <f aca="false">AVERAGE(BU4:BU102)</f>
+        <v>1.61587263478173</v>
+      </c>
+      <c r="BV104" s="0" t="n">
+        <f aca="false">AVERAGE(BV4:BV102)</f>
+        <v>1.61124889657955</v>
+      </c>
+      <c r="BW104" s="0" t="n">
+        <f aca="false">AVERAGE(BW4:BW102)</f>
+        <v>1.60695497796993</v>
+      </c>
+      <c r="BX104" s="0" t="n">
+        <f aca="false">AVERAGE(BX4:BX102)</f>
+        <v>1.60310292003131</v>
+      </c>
+      <c r="BY104" s="0" t="n">
+        <f aca="false">AVERAGE(BY4:BY102)</f>
+        <v>1.59952376587222</v>
+      </c>
+      <c r="BZ104" s="0" t="n">
+        <f aca="false">AVERAGE(BZ4:BZ102)</f>
+        <v>1.59469767893204</v>
+      </c>
+      <c r="CA104" s="0" t="n">
+        <f aca="false">AVERAGE(CA4:CA102)</f>
+        <v>1.59127463234795</v>
+      </c>
+      <c r="CB104" s="0" t="n">
+        <f aca="false">AVERAGE(CB4:CB102)</f>
+        <v>1.58924648376426</v>
+      </c>
+      <c r="CC104" s="0" t="n">
+        <f aca="false">AVERAGE(CC4:CC102)</f>
+        <v>1.58650070850295</v>
+      </c>
+      <c r="CD104" s="0" t="n">
+        <f aca="false">AVERAGE(CD4:CD102)</f>
+        <v>1.58408130058134</v>
+      </c>
+      <c r="CE104" s="0" t="n">
+        <f aca="false">AVERAGE(CE4:CE102)</f>
+        <v>1.58212729054268</v>
+      </c>
+      <c r="CF104" s="0" t="n">
+        <f aca="false">AVERAGE(CF4:CF102)</f>
+        <v>1.57987328972479</v>
+      </c>
+      <c r="CG104" s="0" t="n">
+        <f aca="false">AVERAGE(CG4:CG102)</f>
+        <v>1.57832795200926</v>
+      </c>
+      <c r="CH104" s="0" t="n">
+        <f aca="false">AVERAGE(CH4:CH102)</f>
+        <v>1.57727704746555</v>
+      </c>
+      <c r="CI104" s="0" t="n">
+        <f aca="false">AVERAGE(CI4:CI102)</f>
+        <v>1.57588587264822</v>
+      </c>
+      <c r="CJ104" s="0" t="n">
+        <f aca="false">AVERAGE(CJ4:CJ102)</f>
+        <v>1.5750404114675</v>
+      </c>
+      <c r="CK104" s="0" t="n">
+        <f aca="false">AVERAGE(CK4:CK102)</f>
+        <v>1.57386712955706</v>
+      </c>
+      <c r="CL104" s="0" t="n">
+        <f aca="false">AVERAGE(CL4:CL102)</f>
+        <v>1.57314980511714</v>
+      </c>
+      <c r="CM104" s="0" t="n">
+        <f aca="false">AVERAGE(CM4:CM102)</f>
+        <v>1.5727332758181</v>
+      </c>
+      <c r="CN104" s="0" t="n">
+        <f aca="false">AVERAGE(CN4:CN102)</f>
+        <v>1.57247905418126</v>
+      </c>
+      <c r="CO104" s="0" t="n">
+        <f aca="false">AVERAGE(CO4:CO102)</f>
+        <v>1.57301129114748</v>
+      </c>
+      <c r="CP104" s="0" t="n">
+        <f aca="false">AVERAGE(CP4:CP102)</f>
+        <v>1.5732627300301</v>
+      </c>
+      <c r="CQ104" s="0" t="n">
+        <f aca="false">AVERAGE(CQ4:CQ102)</f>
+        <v>1.57370647155877</v>
+      </c>
+      <c r="CR104" s="0" t="n">
+        <f aca="false">AVERAGE(CR4:CR102)</f>
+        <v>1.57502911428008</v>
+      </c>
+      <c r="CS104" s="0" t="n">
+        <f aca="false">AVERAGE(CS4:CS102)</f>
+        <v>1.57491845434362</v>
+      </c>
+      <c r="CT104" s="0" t="n">
+        <f aca="false">AVERAGE(CT4:CT102)</f>
+        <v>1.57608722195481</v>
+      </c>
+      <c r="CU104" s="0" t="n">
+        <f aca="false">AVERAGE(CU4:CU102)</f>
+        <v>1.57821743536477</v>
+      </c>
+      <c r="CV104" s="0" t="n">
+        <f aca="false">AVERAGE(CV4:CV102)</f>
+        <v>1.58076218884401</v>
+      </c>
+      <c r="CW104" s="0" t="n">
+        <f aca="false">AVERAGE(CW4:CW102)</f>
+        <v>1.58129556130881</v>
+      </c>
+      <c r="CX104" s="0" t="n">
+        <f aca="false">AVERAGE(CX4:CX102)</f>
+        <v>1.58223674514077</v>
+      </c>
+      <c r="CY104" s="0" t="n">
+        <f aca="false">AVERAGE(CY4:CY102)</f>
+        <v>1.58381435485801</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <f aca="false">CORREL(B4:B102,$AZ4:$AZ102)</f>
+        <v>-0.399941193320883</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <f aca="false">CORREL(C4:C102,$AZ4:$AZ102)</f>
+        <v>0.700423598479021</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">CORREL(D4:D102,$AZ4:$AZ102)</f>
+        <v>0.758627760175465</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">CORREL(E4:E102,$AZ4:$AZ102)</f>
+        <v>0.809391170477568</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <f aca="false">CORREL(F4:F102,$AZ4:$AZ102)</f>
+        <v>0.850571707620095</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <f aca="false">CORREL(G4:G102,$AZ4:$AZ102)</f>
+        <v>0.884068915514832</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">CORREL(H4:H102,$AZ4:$AZ102)</f>
+        <v>0.90977538254052</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <f aca="false">CORREL(I4:I102,$AZ4:$AZ102)</f>
+        <v>0.929055836202023</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <f aca="false">CORREL(J4:J102,$AZ4:$AZ102)</f>
+        <v>0.943013892716652</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <f aca="false">CORREL(K4:K102,$AZ4:$AZ102)</f>
+        <v>0.953259895322111</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <f aca="false">CORREL(L4:L102,$AZ4:$AZ102)</f>
+        <v>0.960866851107081</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <f aca="false">CORREL(M4:M102,$AZ4:$AZ102)</f>
+        <v>0.966719991515257</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <f aca="false">CORREL(N4:N102,$AZ4:$AZ102)</f>
+        <v>0.971225788326093</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <f aca="false">CORREL(O4:O102,$AZ4:$AZ102)</f>
+        <v>0.974751637488029</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <f aca="false">CORREL(P4:P102,$AZ4:$AZ102)</f>
+        <v>0.977583124275822</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <f aca="false">CORREL(Q4:Q102,$AZ4:$AZ102)</f>
+        <v>0.979871222073741</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <f aca="false">CORREL(R4:R102,$AZ4:$AZ102)</f>
+        <v>0.981677139178209</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <f aca="false">CORREL(S4:S102,$AZ4:$AZ102)</f>
+        <v>0.983264553112264</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <f aca="false">CORREL(T4:T102,$AZ4:$AZ102)</f>
+        <v>0.984673749112613</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <f aca="false">CORREL(U4:U102,$AZ4:$AZ102)</f>
+        <v>0.98627422891209</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <f aca="false">CORREL(V4:V102,$AZ4:$AZ102)</f>
+        <v>0.987496687042835</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <f aca="false">CORREL(W4:W102,$AZ4:$AZ102)</f>
+        <v>0.988436445670827</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <f aca="false">CORREL(X4:X102,$AZ4:$AZ102)</f>
+        <v>0.989200536406435</v>
+      </c>
+      <c r="Y106" s="0" t="n">
+        <f aca="false">CORREL(Y4:Y102,$AZ4:$AZ102)</f>
+        <v>0.990621193281735</v>
+      </c>
+      <c r="Z106" s="0" t="n">
+        <f aca="false">CORREL(Z4:Z102,$AZ4:$AZ102)</f>
+        <v>0.991275034745855</v>
+      </c>
+      <c r="AA106" s="0" t="n">
+        <f aca="false">CORREL(AA4:AA102,$AZ4:$AZ102)</f>
+        <v>0.991508232270541</v>
+      </c>
+      <c r="AB106" s="0" t="n">
+        <f aca="false">CORREL(AB4:AB102,$AZ4:$AZ102)</f>
+        <v>0.992165280547953</v>
+      </c>
+      <c r="AC106" s="0" t="n">
+        <f aca="false">CORREL(AC4:AC102,$AZ4:$AZ102)</f>
+        <v>0.992527784004414</v>
+      </c>
+      <c r="AD106" s="0" t="n">
+        <f aca="false">CORREL(AD4:AD102,$AZ4:$AZ102)</f>
+        <v>0.992920633976593</v>
+      </c>
+      <c r="AE106" s="0" t="n">
+        <f aca="false">CORREL(AE4:AE102,$AZ4:$AZ102)</f>
+        <v>0.993471774044063</v>
+      </c>
+      <c r="AF106" s="0" t="n">
+        <f aca="false">CORREL(AF4:AF102,$AZ4:$AZ102)</f>
+        <v>0.994364471928901</v>
+      </c>
+      <c r="AG106" s="0" t="n">
+        <f aca="false">CORREL(AG4:AG102,$AZ4:$AZ102)</f>
+        <v>0.99458971344949</v>
+      </c>
+      <c r="AH106" s="0" t="n">
+        <f aca="false">CORREL(AH4:AH102,$AZ4:$AZ102)</f>
+        <v>0.994992478718955</v>
+      </c>
+      <c r="AI106" s="0" t="n">
+        <f aca="false">CORREL(AI4:AI102,$AZ4:$AZ102)</f>
+        <v>0.995274661867845</v>
+      </c>
+      <c r="AJ106" s="0" t="n">
+        <f aca="false">CORREL(AJ4:AJ102,$AZ4:$AZ102)</f>
+        <v>0.995595687322183</v>
+      </c>
+      <c r="AK106" s="0" t="n">
+        <f aca="false">CORREL(AK4:AK102,$AZ4:$AZ102)</f>
+        <v>0.99610717161432</v>
+      </c>
+      <c r="AL106" s="0" t="n">
+        <f aca="false">CORREL(AL4:AL102,$AZ4:$AZ102)</f>
+        <v>0.996499137874941</v>
+      </c>
+      <c r="AM106" s="0" t="n">
+        <f aca="false">CORREL(AM4:AM102,$AZ4:$AZ102)</f>
+        <v>0.996917582815869</v>
+      </c>
+      <c r="AN106" s="0" t="n">
+        <f aca="false">CORREL(AN4:AN102,$AZ4:$AZ102)</f>
+        <v>0.997321285858224</v>
+      </c>
+      <c r="AO106" s="0" t="n">
+        <f aca="false">CORREL(AO4:AO102,$AZ4:$AZ102)</f>
+        <v>0.997806829595149</v>
+      </c>
+      <c r="AP106" s="0" t="n">
+        <f aca="false">CORREL(AP4:AP102,$AZ4:$AZ102)</f>
+        <v>0.998212494548325</v>
+      </c>
+      <c r="AQ106" s="0" t="n">
+        <f aca="false">CORREL(AQ4:AQ102,$AZ4:$AZ102)</f>
+        <v>0.998528536580302</v>
+      </c>
+      <c r="AR106" s="0" t="n">
+        <f aca="false">CORREL(AR4:AR102,$AZ4:$AZ102)</f>
+        <v>0.998856530384999</v>
+      </c>
+      <c r="AS106" s="0" t="n">
+        <f aca="false">CORREL(AS4:AS102,$AZ4:$AZ102)</f>
+        <v>0.999034036498338</v>
+      </c>
+      <c r="AT106" s="0" t="n">
+        <f aca="false">CORREL(AT4:AT102,$AZ4:$AZ102)</f>
+        <v>0.999291515075137</v>
+      </c>
+      <c r="AU106" s="0" t="n">
+        <f aca="false">CORREL(AU4:AU102,$AZ4:$AZ102)</f>
+        <v>0.999499190627588</v>
+      </c>
+      <c r="AV106" s="0" t="n">
+        <f aca="false">CORREL(AV4:AV102,$AZ4:$AZ102)</f>
+        <v>0.999576426040437</v>
+      </c>
+      <c r="AW106" s="0" t="n">
+        <f aca="false">CORREL(AW4:AW102,$AZ4:$AZ102)</f>
+        <v>0.999514880668944</v>
+      </c>
+      <c r="AX106" s="0" t="n">
+        <f aca="false">CORREL(AX4:AX102,$AZ4:$AZ102)</f>
+        <v>0.999613764252291</v>
+      </c>
+      <c r="AY106" s="0" t="n">
+        <f aca="false">CORREL(AY4:AY102,$AZ4:$AZ102)</f>
+        <v>0.99992094071758</v>
+      </c>
+      <c r="AZ106" s="0" t="n">
+        <f aca="false">CORREL(AZ4:AZ102,$AZ4:$AZ102)</f>
+        <v>1</v>
+      </c>
+      <c r="BA106" s="0" t="n">
+        <f aca="false">CORREL(BA4:BA102,$AZ4:$AZ102)</f>
+        <v>-0.39963985562315</v>
+      </c>
+      <c r="BB106" s="0" t="n">
+        <f aca="false">CORREL(BB4:BB102,$AZ4:$AZ102)</f>
+        <v>0.697903222311853</v>
+      </c>
+      <c r="BC106" s="0" t="n">
+        <f aca="false">CORREL(BC4:BC102,$AZ4:$AZ102)</f>
+        <v>0.752036471232144</v>
+      </c>
+      <c r="BD106" s="0" t="n">
+        <f aca="false">CORREL(BD4:BD102,$AZ4:$AZ102)</f>
+        <v>0.7981595919243</v>
+      </c>
+      <c r="BE106" s="0" t="n">
+        <f aca="false">CORREL(BE4:BE102,$AZ4:$AZ102)</f>
+        <v>0.834175082867509</v>
+      </c>
+      <c r="BF106" s="0" t="n">
+        <f aca="false">CORREL(BF4:BF102,$AZ4:$AZ102)</f>
+        <v>0.863583047404776</v>
+      </c>
+      <c r="BG106" s="0" t="n">
+        <f aca="false">CORREL(BG4:BG102,$AZ4:$AZ102)</f>
+        <v>0.886163219124254</v>
+      </c>
+      <c r="BH106" s="0" t="n">
+        <f aca="false">CORREL(BH4:BH102,$AZ4:$AZ102)</f>
+        <v>0.903221532863429</v>
+      </c>
+      <c r="BI106" s="0" t="n">
+        <f aca="false">CORREL(BI4:BI102,$AZ4:$AZ102)</f>
+        <v>0.915358709819369</v>
+      </c>
+      <c r="BJ106" s="0" t="n">
+        <f aca="false">CORREL(BJ4:BJ102,$AZ4:$AZ102)</f>
+        <v>0.923696006727503</v>
+      </c>
+      <c r="BK106" s="0" t="n">
+        <f aca="false">CORREL(BK4:BK102,$AZ4:$AZ102)</f>
+        <v>0.929516318265879</v>
+      </c>
+      <c r="BL106" s="0" t="n">
+        <f aca="false">CORREL(BL4:BL102,$AZ4:$AZ102)</f>
+        <v>0.932942378527537</v>
+      </c>
+      <c r="BM106" s="0" t="n">
+        <f aca="false">CORREL(BM4:BM102,$AZ4:$AZ102)</f>
+        <v>0.935454579368542</v>
+      </c>
+      <c r="BN106" s="0" t="n">
+        <f aca="false">CORREL(BN4:BN102,$AZ4:$AZ102)</f>
+        <v>0.937134331851639</v>
+      </c>
+      <c r="BO106" s="0" t="n">
+        <f aca="false">CORREL(BO4:BO102,$AZ4:$AZ102)</f>
+        <v>0.937531150041654</v>
+      </c>
+      <c r="BP106" s="0" t="n">
+        <f aca="false">CORREL(BP4:BP102,$AZ4:$AZ102)</f>
+        <v>0.936858887355752</v>
+      </c>
+      <c r="BQ106" s="0" t="n">
+        <f aca="false">CORREL(BQ4:BQ102,$AZ4:$AZ102)</f>
+        <v>0.935665366361976</v>
+      </c>
+      <c r="BR106" s="0" t="n">
+        <f aca="false">CORREL(BR4:BR102,$AZ4:$AZ102)</f>
+        <v>0.934040394864311</v>
+      </c>
+      <c r="BS106" s="0" t="n">
+        <f aca="false">CORREL(BS4:BS102,$AZ4:$AZ102)</f>
+        <v>0.931799442958824</v>
+      </c>
+      <c r="BT106" s="0" t="n">
+        <f aca="false">CORREL(BT4:BT102,$AZ4:$AZ102)</f>
+        <v>0.928350936217257</v>
+      </c>
+      <c r="BU106" s="0" t="n">
+        <f aca="false">CORREL(BU4:BU102,$AZ4:$AZ102)</f>
+        <v>0.924811794926969</v>
+      </c>
+      <c r="BV106" s="0" t="n">
+        <f aca="false">CORREL(BV4:BV102,$AZ4:$AZ102)</f>
+        <v>0.920663944543102</v>
+      </c>
+      <c r="BW106" s="0" t="n">
+        <f aca="false">CORREL(BW4:BW102,$AZ4:$AZ102)</f>
+        <v>0.915492967863318</v>
+      </c>
+      <c r="BX106" s="0" t="n">
+        <f aca="false">CORREL(BX4:BX102,$AZ4:$AZ102)</f>
+        <v>0.908608071196724</v>
+      </c>
+      <c r="BY106" s="0" t="n">
+        <f aca="false">CORREL(BY4:BY102,$AZ4:$AZ102)</f>
+        <v>0.90277752219014</v>
+      </c>
+      <c r="BZ106" s="0" t="n">
+        <f aca="false">CORREL(BZ4:BZ102,$AZ4:$AZ102)</f>
+        <v>0.903550465373894</v>
+      </c>
+      <c r="CA106" s="0" t="n">
+        <f aca="false">CORREL(CA4:CA102,$AZ4:$AZ102)</f>
+        <v>0.899687299185794</v>
+      </c>
+      <c r="CB106" s="0" t="n">
+        <f aca="false">CORREL(CB4:CB102,$AZ4:$AZ102)</f>
+        <v>0.890509940888788</v>
+      </c>
+      <c r="CC106" s="0" t="n">
+        <f aca="false">CORREL(CC4:CC102,$AZ4:$AZ102)</f>
+        <v>0.884462835878118</v>
+      </c>
+      <c r="CD106" s="0" t="n">
+        <f aca="false">CORREL(CD4:CD102,$AZ4:$AZ102)</f>
+        <v>0.879504701557628</v>
+      </c>
+      <c r="CE106" s="0" t="n">
+        <f aca="false">CORREL(CE4:CE102,$AZ4:$AZ102)</f>
+        <v>0.873546811555231</v>
+      </c>
+      <c r="CF106" s="0" t="n">
+        <f aca="false">CORREL(CF4:CF102,$AZ4:$AZ102)</f>
+        <v>0.869093260961924</v>
+      </c>
+      <c r="CG106" s="0" t="n">
+        <f aca="false">CORREL(CG4:CG102,$AZ4:$AZ102)</f>
+        <v>0.862848288912199</v>
+      </c>
+      <c r="CH106" s="0" t="n">
+        <f aca="false">CORREL(CH4:CH102,$AZ4:$AZ102)</f>
+        <v>0.855523487564174</v>
+      </c>
+      <c r="CI106" s="0" t="n">
+        <f aca="false">CORREL(CI4:CI102,$AZ4:$AZ102)</f>
+        <v>0.848738912563784</v>
+      </c>
+      <c r="CJ106" s="0" t="n">
+        <f aca="false">CORREL(CJ4:CJ102,$AZ4:$AZ102)</f>
+        <v>0.841365715870839</v>
+      </c>
+      <c r="CK106" s="0" t="n">
+        <f aca="false">CORREL(CK4:CK102,$AZ4:$AZ102)</f>
+        <v>0.836075597105724</v>
+      </c>
+      <c r="CL106" s="0" t="n">
+        <f aca="false">CORREL(CL4:CL102,$AZ4:$AZ102)</f>
+        <v>0.83276844592129</v>
+      </c>
+      <c r="CM106" s="0" t="n">
+        <f aca="false">CORREL(CM4:CM102,$AZ4:$AZ102)</f>
+        <v>0.827756673646384</v>
+      </c>
+      <c r="CN106" s="0" t="n">
+        <f aca="false">CORREL(CN4:CN102,$AZ4:$AZ102)</f>
+        <v>0.818111385913866</v>
+      </c>
+      <c r="CO106" s="0" t="n">
+        <f aca="false">CORREL(CO4:CO102,$AZ4:$AZ102)</f>
+        <v>0.80887685824703</v>
+      </c>
+      <c r="CP106" s="0" t="n">
+        <f aca="false">CORREL(CP4:CP102,$AZ4:$AZ102)</f>
+        <v>0.799842652003764</v>
+      </c>
+      <c r="CQ106" s="0" t="n">
+        <f aca="false">CORREL(CQ4:CQ102,$AZ4:$AZ102)</f>
+        <v>0.789546556778291</v>
+      </c>
+      <c r="CR106" s="0" t="n">
+        <f aca="false">CORREL(CR4:CR102,$AZ4:$AZ102)</f>
+        <v>0.774188194873211</v>
+      </c>
+      <c r="CS106" s="0" t="n">
+        <f aca="false">CORREL(CS4:CS102,$AZ4:$AZ102)</f>
+        <v>0.767546731612844</v>
+      </c>
+      <c r="CT106" s="0" t="n">
+        <f aca="false">CORREL(CT4:CT102,$AZ4:$AZ102)</f>
+        <v>0.751213869654191</v>
+      </c>
+      <c r="CU106" s="0" t="n">
+        <f aca="false">CORREL(CU4:CU102,$AZ4:$AZ102)</f>
+        <v>0.72924384222993</v>
+      </c>
+      <c r="CV106" s="0" t="n">
+        <f aca="false">CORREL(CV4:CV102,$AZ4:$AZ102)</f>
+        <v>0.706034656479335</v>
+      </c>
+      <c r="CW106" s="0" t="n">
+        <f aca="false">CORREL(CW4:CW102,$AZ4:$AZ102)</f>
+        <v>0.697670186880495</v>
+      </c>
+      <c r="CX106" s="0" t="n">
+        <f aca="false">CORREL(CX4:CX102,$AZ4:$AZ102)</f>
+        <v>0.693774259251985</v>
+      </c>
+      <c r="CY106" s="0" t="n">
+        <f aca="false">CORREL(CY4:CY102,$AZ4:$AZ102)</f>
+        <v>0.680774944152936</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">CORREL(B4:B102,$CY4:$CY102)</f>
+        <v>-0.237544821285664</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <f aca="false">CORREL(C4:C102,$CY4:$CY102)</f>
+        <v>0.704691294932622</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">CORREL(D4:D102,$CY4:$CY102)</f>
+        <v>0.723556888158751</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">CORREL(E4:E102,$CY4:$CY102)</f>
+        <v>0.74169570460868</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <f aca="false">CORREL(F4:F102,$CY4:$CY102)</f>
+        <v>0.75510005805986</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <f aca="false">CORREL(G4:G102,$CY4:$CY102)</f>
+        <v>0.763157263056766</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <f aca="false">CORREL(H4:H102,$CY4:$CY102)</f>
+        <v>0.767559134943267</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <f aca="false">CORREL(I4:I102,$CY4:$CY102)</f>
+        <v>0.769160508444694</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <f aca="false">CORREL(J4:J102,$CY4:$CY102)</f>
+        <v>0.769045271964986</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <f aca="false">CORREL(K4:K102,$CY4:$CY102)</f>
+        <v>0.768250641165382</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <f aca="false">CORREL(L4:L102,$CY4:$CY102)</f>
+        <v>0.766168163318014</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <f aca="false">CORREL(M4:M102,$CY4:$CY102)</f>
+        <v>0.763217517702654</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <f aca="false">CORREL(N4:N102,$CY4:$CY102)</f>
+        <v>0.760399614062702</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <f aca="false">CORREL(O4:O102,$CY4:$CY102)</f>
+        <v>0.757043023315755</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <f aca="false">CORREL(P4:P102,$CY4:$CY102)</f>
+        <v>0.753524555537511</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <f aca="false">CORREL(Q4:Q102,$CY4:$CY102)</f>
+        <v>0.74961190961262</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <f aca="false">CORREL(R4:R102,$CY4:$CY102)</f>
+        <v>0.745367349958762</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <f aca="false">CORREL(S4:S102,$CY4:$CY102)</f>
+        <v>0.741539895219555</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <f aca="false">CORREL(T4:T102,$CY4:$CY102)</f>
+        <v>0.738159464926613</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <f aca="false">CORREL(U4:U102,$CY4:$CY102)</f>
+        <v>0.734938152513481</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <f aca="false">CORREL(V4:V102,$CY4:$CY102)</f>
+        <v>0.73157493496345</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <f aca="false">CORREL(W4:W102,$CY4:$CY102)</f>
+        <v>0.727686582824905</v>
+      </c>
+      <c r="X107" s="0" t="n">
+        <f aca="false">CORREL(X4:X102,$CY4:$CY102)</f>
+        <v>0.724911511994845</v>
+      </c>
+      <c r="Y107" s="0" t="n">
+        <f aca="false">CORREL(Y4:Y102,$CY4:$CY102)</f>
+        <v>0.722766764058163</v>
+      </c>
+      <c r="Z107" s="0" t="n">
+        <f aca="false">CORREL(Z4:Z102,$CY4:$CY102)</f>
+        <v>0.720013848550517</v>
+      </c>
+      <c r="AA107" s="0" t="n">
+        <f aca="false">CORREL(AA4:AA102,$CY4:$CY102)</f>
+        <v>0.715654464884167</v>
+      </c>
+      <c r="AB107" s="0" t="n">
+        <f aca="false">CORREL(AB4:AB102,$CY4:$CY102)</f>
+        <v>0.712506111835832</v>
+      </c>
+      <c r="AC107" s="0" t="n">
+        <f aca="false">CORREL(AC4:AC102,$CY4:$CY102)</f>
+        <v>0.708278283001435</v>
+      </c>
+      <c r="AD107" s="0" t="n">
+        <f aca="false">CORREL(AD4:AD102,$CY4:$CY102)</f>
+        <v>0.705307798122136</v>
+      </c>
+      <c r="AE107" s="0" t="n">
+        <f aca="false">CORREL(AE4:AE102,$CY4:$CY102)</f>
+        <v>0.702404256977763</v>
+      </c>
+      <c r="AF107" s="0" t="n">
+        <f aca="false">CORREL(AF4:AF102,$CY4:$CY102)</f>
+        <v>0.700256936134816</v>
+      </c>
+      <c r="AG107" s="0" t="n">
+        <f aca="false">CORREL(AG4:AG102,$CY4:$CY102)</f>
+        <v>0.697287108353492</v>
+      </c>
+      <c r="AH107" s="0" t="n">
+        <f aca="false">CORREL(AH4:AH102,$CY4:$CY102)</f>
+        <v>0.694474841603673</v>
+      </c>
+      <c r="AI107" s="0" t="n">
+        <f aca="false">CORREL(AI4:AI102,$CY4:$CY102)</f>
+        <v>0.691806349794717</v>
+      </c>
+      <c r="AJ107" s="0" t="n">
+        <f aca="false">CORREL(AJ4:AJ102,$CY4:$CY102)</f>
+        <v>0.690728728828352</v>
+      </c>
+      <c r="AK107" s="0" t="n">
+        <f aca="false">CORREL(AK4:AK102,$CY4:$CY102)</f>
+        <v>0.689532115371535</v>
+      </c>
+      <c r="AL107" s="0" t="n">
+        <f aca="false">CORREL(AL4:AL102,$CY4:$CY102)</f>
+        <v>0.687090417213676</v>
+      </c>
+      <c r="AM107" s="0" t="n">
+        <f aca="false">CORREL(AM4:AM102,$CY4:$CY102)</f>
+        <v>0.684617166146995</v>
+      </c>
+      <c r="AN107" s="0" t="n">
+        <f aca="false">CORREL(AN4:AN102,$CY4:$CY102)</f>
+        <v>0.68289149347029</v>
+      </c>
+      <c r="AO107" s="0" t="n">
+        <f aca="false">CORREL(AO4:AO102,$CY4:$CY102)</f>
+        <v>0.682572188644497</v>
+      </c>
+      <c r="AP107" s="0" t="n">
+        <f aca="false">CORREL(AP4:AP102,$CY4:$CY102)</f>
+        <v>0.68081239469679</v>
+      </c>
+      <c r="AQ107" s="0" t="n">
+        <f aca="false">CORREL(AQ4:AQ102,$CY4:$CY102)</f>
+        <v>0.679726381249997</v>
+      </c>
+      <c r="AR107" s="0" t="n">
+        <f aca="false">CORREL(AR4:AR102,$CY4:$CY102)</f>
+        <v>0.679934267704707</v>
+      </c>
+      <c r="AS107" s="0" t="n">
+        <f aca="false">CORREL(AS4:AS102,$CY4:$CY102)</f>
+        <v>0.680171390567135</v>
+      </c>
+      <c r="AT107" s="0" t="n">
+        <f aca="false">CORREL(AT4:AT102,$CY4:$CY102)</f>
+        <v>0.680292728212765</v>
+      </c>
+      <c r="AU107" s="0" t="n">
+        <f aca="false">CORREL(AU4:AU102,$CY4:$CY102)</f>
+        <v>0.681330879936885</v>
+      </c>
+      <c r="AV107" s="0" t="n">
+        <f aca="false">CORREL(AV4:AV102,$CY4:$CY102)</f>
+        <v>0.682892466418507</v>
+      </c>
+      <c r="AW107" s="0" t="n">
+        <f aca="false">CORREL(AW4:AW102,$CY4:$CY102)</f>
+        <v>0.683879536651774</v>
+      </c>
+      <c r="AX107" s="0" t="n">
+        <f aca="false">CORREL(AX4:AX102,$CY4:$CY102)</f>
+        <v>0.683163762658265</v>
+      </c>
+      <c r="AY107" s="0" t="n">
+        <f aca="false">CORREL(AY4:AY102,$CY4:$CY102)</f>
+        <v>0.6809192751073</v>
+      </c>
+      <c r="AZ107" s="0" t="n">
+        <f aca="false">CORREL(AZ4:AZ102,$CY4:$CY102)</f>
+        <v>0.680774944152936</v>
+      </c>
+      <c r="BA107" s="0" t="n">
+        <f aca="false">CORREL(BA4:BA102,$CY4:$CY102)</f>
+        <v>-0.236878936667872</v>
+      </c>
+      <c r="BB107" s="0" t="n">
+        <f aca="false">CORREL(BB4:BB102,$CY4:$CY102)</f>
+        <v>0.711870851783217</v>
+      </c>
+      <c r="BC107" s="0" t="n">
+        <f aca="false">CORREL(BC4:BC102,$CY4:$CY102)</f>
+        <v>0.735592080816501</v>
+      </c>
+      <c r="BD107" s="0" t="n">
+        <f aca="false">CORREL(BD4:BD102,$CY4:$CY102)</f>
+        <v>0.75875814890267</v>
+      </c>
+      <c r="BE107" s="0" t="n">
+        <f aca="false">CORREL(BE4:BE102,$CY4:$CY102)</f>
+        <v>0.778193288526401</v>
+      </c>
+      <c r="BF107" s="0" t="n">
+        <f aca="false">CORREL(BF4:BF102,$CY4:$CY102)</f>
+        <v>0.792873406122828</v>
+      </c>
+      <c r="BG107" s="0" t="n">
+        <f aca="false">CORREL(BG4:BG102,$CY4:$CY102)</f>
+        <v>0.80485046907374</v>
+      </c>
+      <c r="BH107" s="0" t="n">
+        <f aca="false">CORREL(BH4:BH102,$CY4:$CY102)</f>
+        <v>0.813472548385391</v>
+      </c>
+      <c r="BI107" s="0" t="n">
+        <f aca="false">CORREL(BI4:BI102,$CY4:$CY102)</f>
+        <v>0.82025202757485</v>
+      </c>
+      <c r="BJ107" s="0" t="n">
+        <f aca="false">CORREL(BJ4:BJ102,$CY4:$CY102)</f>
+        <v>0.826807518385371</v>
+      </c>
+      <c r="BK107" s="0" t="n">
+        <f aca="false">CORREL(BK4:BK102,$CY4:$CY102)</f>
+        <v>0.83219342764215</v>
+      </c>
+      <c r="BL107" s="0" t="n">
+        <f aca="false">CORREL(BL4:BL102,$CY4:$CY102)</f>
+        <v>0.837998136296865</v>
+      </c>
+      <c r="BM107" s="0" t="n">
+        <f aca="false">CORREL(BM4:BM102,$CY4:$CY102)</f>
+        <v>0.843010165771751</v>
+      </c>
+      <c r="BN107" s="0" t="n">
+        <f aca="false">CORREL(BN4:BN102,$CY4:$CY102)</f>
+        <v>0.847009553411488</v>
+      </c>
+      <c r="BO107" s="0" t="n">
+        <f aca="false">CORREL(BO4:BO102,$CY4:$CY102)</f>
+        <v>0.85178227316894</v>
+      </c>
+      <c r="BP107" s="0" t="n">
+        <f aca="false">CORREL(BP4:BP102,$CY4:$CY102)</f>
+        <v>0.856855503644981</v>
+      </c>
+      <c r="BQ107" s="0" t="n">
+        <f aca="false">CORREL(BQ4:BQ102,$CY4:$CY102)</f>
+        <v>0.86193836966154</v>
+      </c>
+      <c r="BR107" s="0" t="n">
+        <f aca="false">CORREL(BR4:BR102,$CY4:$CY102)</f>
+        <v>0.867101913486172</v>
+      </c>
+      <c r="BS107" s="0" t="n">
+        <f aca="false">CORREL(BS4:BS102,$CY4:$CY102)</f>
+        <v>0.872423101779846</v>
+      </c>
+      <c r="BT107" s="0" t="n">
+        <f aca="false">CORREL(BT4:BT102,$CY4:$CY102)</f>
+        <v>0.878028286887476</v>
+      </c>
+      <c r="BU107" s="0" t="n">
+        <f aca="false">CORREL(BU4:BU102,$CY4:$CY102)</f>
+        <v>0.883712078992679</v>
+      </c>
+      <c r="BV107" s="0" t="n">
+        <f aca="false">CORREL(BV4:BV102,$CY4:$CY102)</f>
+        <v>0.889406494470046</v>
+      </c>
+      <c r="BW107" s="0" t="n">
+        <f aca="false">CORREL(BW4:BW102,$CY4:$CY102)</f>
+        <v>0.894437862955625</v>
+      </c>
+      <c r="BX107" s="0" t="n">
+        <f aca="false">CORREL(BX4:BX102,$CY4:$CY102)</f>
+        <v>0.899094957061183</v>
+      </c>
+      <c r="BY107" s="0" t="n">
+        <f aca="false">CORREL(BY4:BY102,$CY4:$CY102)</f>
+        <v>0.904600965707148</v>
+      </c>
+      <c r="BZ107" s="0" t="n">
+        <f aca="false">CORREL(BZ4:BZ102,$CY4:$CY102)</f>
+        <v>0.909222972938262</v>
+      </c>
+      <c r="CA107" s="0" t="n">
+        <f aca="false">CORREL(CA4:CA102,$CY4:$CY102)</f>
+        <v>0.914472263218103</v>
+      </c>
+      <c r="CB107" s="0" t="n">
+        <f aca="false">CORREL(CB4:CB102,$CY4:$CY102)</f>
+        <v>0.919527017266049</v>
+      </c>
+      <c r="CC107" s="0" t="n">
+        <f aca="false">CORREL(CC4:CC102,$CY4:$CY102)</f>
+        <v>0.924823043507808</v>
+      </c>
+      <c r="CD107" s="0" t="n">
+        <f aca="false">CORREL(CD4:CD102,$CY4:$CY102)</f>
+        <v>0.929239118064593</v>
+      </c>
+      <c r="CE107" s="0" t="n">
+        <f aca="false">CORREL(CE4:CE102,$CY4:$CY102)</f>
+        <v>0.934411660823789</v>
+      </c>
+      <c r="CF107" s="0" t="n">
+        <f aca="false">CORREL(CF4:CF102,$CY4:$CY102)</f>
+        <v>0.939840349965431</v>
+      </c>
+      <c r="CG107" s="0" t="n">
+        <f aca="false">CORREL(CG4:CG102,$CY4:$CY102)</f>
+        <v>0.944127461786215</v>
+      </c>
+      <c r="CH107" s="0" t="n">
+        <f aca="false">CORREL(CH4:CH102,$CY4:$CY102)</f>
+        <v>0.948451792338079</v>
+      </c>
+      <c r="CI107" s="0" t="n">
+        <f aca="false">CORREL(CI4:CI102,$CY4:$CY102)</f>
+        <v>0.954030526909488</v>
+      </c>
+      <c r="CJ107" s="0" t="n">
+        <f aca="false">CORREL(CJ4:CJ102,$CY4:$CY102)</f>
+        <v>0.958233761022613</v>
+      </c>
+      <c r="CK107" s="0" t="n">
+        <f aca="false">CORREL(CK4:CK102,$CY4:$CY102)</f>
+        <v>0.961466719036254</v>
+      </c>
+      <c r="CL107" s="0" t="n">
+        <f aca="false">CORREL(CL4:CL102,$CY4:$CY102)</f>
+        <v>0.96531072286899</v>
+      </c>
+      <c r="CM107" s="0" t="n">
+        <f aca="false">CORREL(CM4:CM102,$CY4:$CY102)</f>
+        <v>0.968955866776316</v>
+      </c>
+      <c r="CN107" s="0" t="n">
+        <f aca="false">CORREL(CN4:CN102,$CY4:$CY102)</f>
+        <v>0.972758160578061</v>
+      </c>
+      <c r="CO107" s="0" t="n">
+        <f aca="false">CORREL(CO4:CO102,$CY4:$CY102)</f>
+        <v>0.976629878480784</v>
+      </c>
+      <c r="CP107" s="0" t="n">
+        <f aca="false">CORREL(CP4:CP102,$CY4:$CY102)</f>
+        <v>0.980181863258636</v>
+      </c>
+      <c r="CQ107" s="0" t="n">
+        <f aca="false">CORREL(CQ4:CQ102,$CY4:$CY102)</f>
+        <v>0.982189987333537</v>
+      </c>
+      <c r="CR107" s="0" t="n">
+        <f aca="false">CORREL(CR4:CR102,$CY4:$CY102)</f>
+        <v>0.985537119191792</v>
+      </c>
+      <c r="CS107" s="0" t="n">
+        <f aca="false">CORREL(CS4:CS102,$CY4:$CY102)</f>
+        <v>0.98872330069628</v>
+      </c>
+      <c r="CT107" s="0" t="n">
+        <f aca="false">CORREL(CT4:CT102,$CY4:$CY102)</f>
+        <v>0.992306300275171</v>
+      </c>
+      <c r="CU107" s="0" t="n">
+        <f aca="false">CORREL(CU4:CU102,$CY4:$CY102)</f>
+        <v>0.995219769426137</v>
+      </c>
+      <c r="CV107" s="0" t="n">
+        <f aca="false">CORREL(CV4:CV102,$CY4:$CY102)</f>
+        <v>0.995880279132473</v>
+      </c>
+      <c r="CW107" s="0" t="n">
+        <f aca="false">CORREL(CW4:CW102,$CY4:$CY102)</f>
+        <v>0.996170247684233</v>
+      </c>
+      <c r="CX107" s="0" t="n">
+        <f aca="false">CORREL(CX4:CX102,$CY4:$CY102)</f>
+        <v>0.999072424072473</v>
+      </c>
+      <c r="CY107" s="0" t="n">
+        <f aca="false">CORREL(CY4:CY102,$CY4:$CY102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">CORREL(B4:B102, BA4:BA102)</f>
+        <v>0.999764257698574</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <f aca="false">CORREL(C4:C102, BB4:BB102)</f>
+        <v>0.998357265121512</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">CORREL(D4:D102, BC4:BC102)</f>
+        <v>0.998106538342091</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">CORREL(E4:E102, BD4:BD102)</f>
+        <v>0.997480649524792</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <f aca="false">CORREL(F4:F102, BE4:BE102)</f>
+        <v>0.99673020244924</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <f aca="false">CORREL(G4:G102, BF4:BF102)</f>
+        <v>0.995845777641143</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">CORREL(H4:H102, BG4:BG102)</f>
+        <v>0.994748489207892</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <f aca="false">CORREL(I4:I102, BH4:BH102)</f>
+        <v>0.993621214410231</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <f aca="false">CORREL(J4:J102, BI4:BI102)</f>
+        <v>0.992457652139946</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <f aca="false">CORREL(K4:K102, BJ4:BJ102)</f>
+        <v>0.991086898970937</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">CORREL(L4:L102, BK4:BK102)</f>
+        <v>0.989506029558779</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <f aca="false">CORREL(M4:M102, BL4:BL102)</f>
+        <v>0.987452451367884</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <f aca="false">CORREL(N4:N102, BM4:BM102)</f>
+        <v>0.985388746002028</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <f aca="false">CORREL(O4:O102, BN4:BN102)</f>
+        <v>0.983282241537387</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <f aca="false">CORREL(P4:P102, BO4:BO102)</f>
+        <v>0.980627116045512</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <f aca="false">CORREL(Q4:Q102, BP4:BP102)</f>
+        <v>0.977298302886007</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <f aca="false">CORREL(R4:R102, BQ4:BQ102)</f>
+        <v>0.973351167836052</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <f aca="false">CORREL(S4:S102, BR4:BR102)</f>
+        <v>0.96911840973627</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <f aca="false">CORREL(T4:T102, BS4:BS102)</f>
+        <v>0.964125477223429</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <f aca="false">CORREL(U4:U102, BT4:BT102)</f>
+        <v>0.958173994502613</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <f aca="false">CORREL(V4:V102, BU4:BU102)</f>
+        <v>0.952838303911756</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <f aca="false">CORREL(W4:W102, BV4:BV102)</f>
+        <v>0.945918636980806</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <f aca="false">CORREL(X4:X102, BW4:BW102)</f>
+        <v>0.938040406482726</v>
+      </c>
+      <c r="Y109" s="0" t="n">
+        <f aca="false">CORREL(Y4:Y102, BX4:BX102)</f>
+        <v>0.929711652482176</v>
+      </c>
+      <c r="Z109" s="0" t="n">
+        <f aca="false">CORREL(Z4:Z102, BY4:BY102)</f>
+        <v>0.921841482424021</v>
+      </c>
+      <c r="AA109" s="0" t="n">
+        <f aca="false">CORREL(AA4:AA102, BZ4:BZ102)</f>
+        <v>0.921083473290952</v>
+      </c>
+      <c r="AB109" s="0" t="n">
+        <f aca="false">CORREL(AB4:AB102, CA4:CA102)</f>
+        <v>0.915947787814935</v>
+      </c>
+      <c r="AC109" s="0" t="n">
+        <f aca="false">CORREL(AC4:AC102, CB4:CB102)</f>
+        <v>0.901968704631012</v>
+      </c>
+      <c r="AD109" s="0" t="n">
+        <f aca="false">CORREL(AD4:AD102, CC4:CC102)</f>
+        <v>0.893853479738189</v>
+      </c>
+      <c r="AE109" s="0" t="n">
+        <f aca="false">CORREL(AE4:AE102, CD4:CD102)</f>
+        <v>0.887725017626152</v>
+      </c>
+      <c r="AF109" s="0" t="n">
+        <f aca="false">CORREL(AF4:AF102, CE4:CE102)</f>
+        <v>0.88162567984089</v>
+      </c>
+      <c r="AG109" s="0" t="n">
+        <f aca="false">CORREL(AG4:AG102, CF4:CF102)</f>
+        <v>0.876261110749689</v>
+      </c>
+      <c r="AH109" s="0" t="n">
+        <f aca="false">CORREL(AH4:AH102, CG4:CG102)</f>
+        <v>0.868154010934725</v>
+      </c>
+      <c r="AI109" s="0" t="n">
+        <f aca="false">CORREL(AI4:AI102, CH4:CH102)</f>
+        <v>0.859161030344392</v>
+      </c>
+      <c r="AJ109" s="0" t="n">
+        <f aca="false">CORREL(AJ4:AJ102, CI4:CI102)</f>
+        <v>0.852555521793771</v>
+      </c>
+      <c r="AK109" s="0" t="n">
+        <f aca="false">CORREL(AK4:AK102, CJ4:CJ102)</f>
+        <v>0.845938385180064</v>
+      </c>
+      <c r="AL109" s="0" t="n">
+        <f aca="false">CORREL(AL4:AL102, CK4:CK102)</f>
+        <v>0.839514546893235</v>
+      </c>
+      <c r="AM109" s="0" t="n">
+        <f aca="false">CORREL(AM4:AM102, CL4:CL102)</f>
+        <v>0.834409370097433</v>
+      </c>
+      <c r="AN109" s="0" t="n">
+        <f aca="false">CORREL(AN4:AN102, CM4:CM102)</f>
+        <v>0.828558383427692</v>
+      </c>
+      <c r="AO109" s="0" t="n">
+        <f aca="false">CORREL(AO4:AO102, CN4:CN102)</f>
+        <v>0.81869185731762</v>
+      </c>
+      <c r="AP109" s="0" t="n">
+        <f aca="false">CORREL(AP4:AP102, CO4:CO102)</f>
+        <v>0.808214217388706</v>
+      </c>
+      <c r="AQ109" s="0" t="n">
+        <f aca="false">CORREL(AQ4:AQ102, CP4:CP102)</f>
+        <v>0.798626296747373</v>
+      </c>
+      <c r="AR109" s="0" t="n">
+        <f aca="false">CORREL(AR4:AR102, CQ4:CQ102)</f>
+        <v>0.788960761908838</v>
+      </c>
+      <c r="AS109" s="0" t="n">
+        <f aca="false">CORREL(AS4:AS102, CR4:CR102)</f>
+        <v>0.77433539295371</v>
+      </c>
+      <c r="AT109" s="0" t="n">
+        <f aca="false">CORREL(AT4:AT102, CS4:CS102)</f>
+        <v>0.767789793699302</v>
+      </c>
+      <c r="AU109" s="0" t="n">
+        <f aca="false">CORREL(AU4:AU102, CT4:CT102)</f>
+        <v>0.752293818743432</v>
+      </c>
+      <c r="AV109" s="0" t="n">
+        <f aca="false">CORREL(AV4:AV102, CU4:CU102)</f>
+        <v>0.732123186073703</v>
+      </c>
+      <c r="AW109" s="0" t="n">
+        <f aca="false">CORREL(AW4:AW102, CV4:CV102)</f>
+        <v>0.710878677069205</v>
+      </c>
+      <c r="AX109" s="0" t="n">
+        <f aca="false">CORREL(AX4:AX102, CW4:CW102)</f>
+        <v>0.701951655566304</v>
+      </c>
+      <c r="AY109" s="0" t="n">
+        <f aca="false">CORREL(AY4:AY102, CX4:CX102)</f>
+        <v>0.69432388206403</v>
+      </c>
+      <c r="AZ109" s="0" t="n">
+        <f aca="false">CORREL(AZ4:AZ102, CY4:CY102)</f>
+        <v>0.680774944152936</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
